--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_shady_merchant.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_shady_merchant.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,230 +488,225 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>pre_greeting</t>
+          <t>greeting</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pre_greeting</t>
+          <t>greeting</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>modInvoke</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>check_available_quests(sukutsu_shady_merchant)</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>greet</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>おや……何か御用でしょうか？</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>おや……何か御用でしょうか？</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>quest_notice</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>if_flag(sukutsu_available_quest_count, &gt;0)</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>choices</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>greeting</t>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>quest_notice</t>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>_trade</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>c_trade</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>商品を見る</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>商品を見る</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>check_quests</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>quest_notice</t>
+          <t>c_event</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>おや、{pcname}殿……。ちょうど良いところにお越しになりました。</t>
+          <t>（イベントを開始）</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>おや、{pcname}殿……。ちょうど良いところにお越しになりました。</t>
+          <t>（イベントを開始）</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>quest_notice2</t>
+          <t>c_bye</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>少々、お耳に入れたい話がございまして……。</t>
+          <t>また今度</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>少々、お耳に入れたい話がございまして……。</t>
+          <t>また今度</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>check_quests</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>c_hear</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>話を聞く</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>話を聞く</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>greeting</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>c_later</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>後にする</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>後にする</t>
-        </is>
-      </c>
     </row>
     <row r="17">
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>greeting</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>cancel</t>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>sukutsu_quest_found,0</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>check_quests</t>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>sukutsu_quest_target_name,0</t>
         </is>
       </c>
     </row>
     <row r="19">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>debug_log_quests()</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>quest_intro</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>では、耳をお貸しください……。</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>では、耳をお貸しください……。</t>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="D20" t="inlineStr">
         <is>
-          <t>setFlag</t>
+          <t>modInvoke</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>sukutsu_quest_found,0</t>
+          <t>check_quest_available(03_zek_intro, start_zek_intro)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="D21" t="inlineStr">
         <is>
-          <t>setFlag</t>
+          <t>modInvoke</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>sukutsu_quest_target_name,0</t>
+          <t>check_quest_available(05_2_zek_steal_bottle, start_zek_steal_bottle)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
@@ -723,7 +718,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>debug_log_quests()</t>
+          <t>check_quest_available(06_2_zek_steal_soulgem, start_zek_steal_soulgem)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -740,7 +735,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>check_quest_available(03_zek_intro, start_zek_intro)</t>
+          <t>switch_flag(sukutsu_quest_target_name, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, start_zek_intro, quest_none, start_zek_steal_bottle, start_zek_steal_soulgem, quest_none)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -750,370 +745,251 @@
       </c>
     </row>
     <row r="24">
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>modInvoke</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>check_quest_available(05_2_zek_steal_bottle, start_zek_steal_bottle)</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>quest_none</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>modInvoke</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>check_quest_available(06_2_zek_steal_soulgem, start_zek_steal_soulgem)</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>quest_none</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>……おや、今は特にお伝えすることがないようです。</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>……おや、今は特にお伝えすることがないようです。</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>modInvoke</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>switch_flag(sukutsu_quest_target_name, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, start_zek_intro, quest_none, start_zek_steal_bottle, start_zek_steal_soulgem, quest_none)</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>quest_none</t>
+          <t>start_zek_intro</t>
         </is>
       </c>
     </row>
     <row r="28">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>start_quest(03_zek_intro)</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>quest_none</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>……おや、勘違いだったようです。失礼いたしました。</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>……おや、勘違いだったようです。失礼いたしました。</t>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>greeting</t>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_zek_intro");</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>start_zek_intro</t>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_zek_intro");</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="D31" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>start_quest(03_zek_intro)</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="D32" t="inlineStr">
         <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_zek_intro");</t>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_zek_intro");</t>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>start_zek_steal_bottle</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="D34" t="inlineStr">
         <is>
-          <t>eval</t>
+          <t>modInvoke</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>start_quest(05_2_zek_steal_bottle)</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="D35" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_zek_steal_bottle");</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>start_zek_steal_bottle</t>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_zek_steal_bottle");</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="D37" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>start_quest(05_2_zek_steal_bottle)</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="D38" t="inlineStr">
         <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_zek_steal_bottle");</t>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_zek_steal_bottle");</t>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>start_zek_steal_soulgem</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="D40" t="inlineStr">
         <is>
-          <t>eval</t>
+          <t>modInvoke</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>start_quest(06_2_zek_steal_soulgem)</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="D41" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_zek_steal_soulgem");</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>start_zek_steal_soulgem</t>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_zek_steal_soulgem");</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="D43" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>start_quest(06_2_zek_steal_soulgem)</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="D44" t="inlineStr">
         <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_zek_steal_soulgem");</t>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_zek_steal_soulgem");</t>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="D46" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>greeting</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>greet</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>ふふ……何か御用でしょうか？</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>ふふ……何か御用でしょうか？</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>c_bye</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>また今度</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>また今度</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>cancel</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="D53" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_shady_merchant.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_shady_merchant.xlsx
@@ -538,7 +538,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>_trade</t>
+          <t>_buy</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>c_trade</t>
+          <t>c_buy</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_shady_merchant.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_shady_merchant.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,40 +439,45 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>if2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>action</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>actor</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>text_JP</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>text_EN</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>text</t>
         </is>
@@ -500,22 +505,22 @@
       </c>
     </row>
     <row r="9">
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>greet</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>おや……何か御用でしょうか？</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>おや……何か御用でしょうか？</t>
         </is>
@@ -541,22 +546,22 @@
           <t>_buy</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>c_buy</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>商品を見る</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>商品を見る</t>
         </is>
@@ -568,22 +573,22 @@
           <t>check_quests</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>c_event</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>（イベントを開始）</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>（イベントを開始）</t>
         </is>
@@ -595,22 +600,22 @@
           <t>end</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>c_bye</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>また今度</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>また今度</t>
         </is>
@@ -622,7 +627,7 @@
           <t>end</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>cancel</t>
         </is>
@@ -636,360 +641,413 @@
       </c>
     </row>
     <row r="17">
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>sukutsu_quest_found,0</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>sukutsu_quest_target_name,0</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>modInvoke</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>debug_log_quests()</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>modInvoke</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>check_quest_available(03_zek_intro, start_zek_intro)</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>check_quests_for_dispatch(sukutsu_quest_target_name, 03_zek_intro, 05_2_zek_steal_bottle, 06_2_zek_steal_soulgem, 18_last_battle)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>pc</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>modInvoke</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>check_quest_available(05_2_zek_steal_bottle, start_zek_steal_bottle)</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>switch_flag(sukutsu_quest_target_name, quest_none, start_zek_intro, start_zek_steal_bottle, start_zek_steal_soulgem, start_last_battle)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>pc</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="D22" t="inlineStr">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>quest_none</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>quest_none</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>……おや、今は特にお伝えすることがないようです。</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>……おや、今は特にお伝えすることがないようです。</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>start_zek_intro</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="inlineStr">
         <is>
           <t>modInvoke</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>check_quest_available(06_2_zek_steal_soulgem, start_zek_steal_soulgem)</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>start_quest(03_zek_intro)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="D23" t="inlineStr">
+    <row r="27">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_zek_intro");</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="inlineStr">
         <is>
           <t>modInvoke</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>switch_flag(sukutsu_quest_target_name, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, quest_none, start_zek_intro, quest_none, start_zek_steal_bottle, start_zek_steal_soulgem, quest_none)</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>start_drama(drama_zek_intro)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>quest_none</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>quest_none</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>……おや、今は特にお伝えすることがないようです。</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>……おや、今は特にお伝えすることがないようです。</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>start_zek_intro</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="D28" t="inlineStr">
+    <row r="29">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>start_zek_steal_bottle</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="inlineStr">
         <is>
           <t>modInvoke</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>start_quest(03_zek_intro)</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>start_quest(05_2_zek_steal_bottle)</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="D29" t="inlineStr">
+    <row r="33">
+      <c r="E33" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_zek_intro");</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="D30" t="inlineStr">
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_zek_steal_bottle");</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>start_drama(drama_zek_steal_bottle)</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_zek_intro");</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="D31" t="inlineStr">
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>start_zek_steal_soulgem</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>start_quest(06_2_zek_steal_soulgem)</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_zek_steal_soulgem");</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>start_drama(drama_zek_steal_soulgem)</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
         <is>
           <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="D32" t="inlineStr">
+    <row r="42">
+      <c r="E42" t="inlineStr">
         <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>start_zek_steal_bottle</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="D34" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>start_last_battle</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="inlineStr">
         <is>
           <t>modInvoke</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>start_quest(05_2_zek_steal_bottle)</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>start_quest(18_last_battle)</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="D35" t="inlineStr">
+    <row r="45">
+      <c r="E45" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_zek_steal_bottle");</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="D36" t="inlineStr">
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_last_battle");</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>start_drama(drama_last_battle)</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_zek_steal_bottle");</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="D38" t="inlineStr">
+    <row r="48">
+      <c r="E48" t="inlineStr">
         <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>start_zek_steal_soulgem</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>modInvoke</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>start_quest(06_2_zek_steal_soulgem)</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_zek_steal_soulgem");</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_zek_steal_soulgem");</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="D44" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="D46" t="inlineStr">
+    <row r="50">
+      <c r="E50" t="inlineStr">
         <is>
           <t>end</t>
         </is>
